--- a/output/item/스피커/2021-12-18_스피커.xlsx
+++ b/output/item/스피커/2021-12-18_스피커.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>에이튜브 A450V 진공관 사운드바 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>에이튜브 A450V 진공관 사운드바 스피커</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이튜브 A601V 진공관 사운드바 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>에이튜브 A601V 진공관 사운드바 스피커</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>크리에이티브 PEBBLE 2.0 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>크리에이티브 PEBBLE 2.0 스피커</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>아이리버 IR-SB1 사운드바 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>아이리버 IR-SB1 사운드바 스피커</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한성컴퓨터 SIROCO GS220 2채널 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>한성컴퓨터 SIROCO GS220 2채널 스피커</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>앱코 S500AC 사운드바 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>앱코 S500AC 사운드바 스피커</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COX CSB10 사운드바 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>COX CSB10 사운드바 스피커</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>앱코 SP290 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>앱코 SP290 스피커</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>앱코 SP300 PC &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>앱코 SP300 PC 스피커</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>몬스타기어 LIVE100 사운드바 usb &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>몬스타기어 LIVE100 사운드바 usb 스피커</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>몬스타기어 가츠 라이브200 블루투스 사운드바 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>몬스타기어 가츠 라이브200 블루투스 사운드바 스피커</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>몬스타기어 가츠 LIVE20 &lt;b&gt;스피커&lt;/b&gt;</t>
+          <t>몬스타기어 가츠 LIVE20 스피커</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
